--- a/2022-09-29T10:27:05.490328EnhancedExcel.xlsx
+++ b/2022-09-29T10:27:05.490328EnhancedExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasvince/Documents/Munka/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasvince/Documents/Munka/ExcelToXml/2022-09-29T10:27:"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EC7205-AF3F-7E41-A3DB-68F49C9A407D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC8E013-D1F9-7C4B-9010-02265E74D5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{237A7D24-C9DB-CC41-B077-1D40B19F2906}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" xr2:uid="{237A7D24-C9DB-CC41-B077-1D40B19F2906}"/>
   </bookViews>
   <sheets>
     <sheet name="feleletválasztó" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -316,10 +316,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -636,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460EB52C-8485-064A-80B1-C4103290D715}">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,15 +661,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -693,149 +686,149 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="5">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="5">
         <v>0</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="15" t="b">
+      <c r="C9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="15" t="b">
+      <c r="C10" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -844,19 +837,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="5">
         <v>50</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="5">
         <v>-50</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="5">
         <v>50</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="5">
         <v>-50</v>
       </c>
       <c r="G15" s="6">
